--- a/Writing & Literature/Graphics from pptx/Tables/ML_Results.xlsx
+++ b/Writing & Literature/Graphics from pptx/Tables/ML_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sawyerbenson/Documents/Master Thesis/HPM_Thesis/Writing &amp; Literature/Graphics from pptx/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264661AC-CFF9-0C4D-97A4-8EB7DA275913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA3222-9CB0-CC46-AD62-E52CEF538D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="20480" xr2:uid="{0AE7B6D7-6B3D-954A-ACCC-BFCD0BA6F9F4}"/>
+    <workbookView xWindow="-27320" yWindow="500" windowWidth="27320" windowHeight="19980" xr2:uid="{0AE7B6D7-6B3D-954A-ACCC-BFCD0BA6F9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>Gradient Boosting</t>
   </si>
   <si>
-    <t>Extream Gradient Boosting</t>
+    <t>eXtream Gradient Boosting</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
